--- a/test/target.xlsx
+++ b/test/target.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowHeight="17260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="未匹配数据" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2584" uniqueCount="626">
   <si>
     <t>单据类型</t>
   </si>
@@ -3118,10 +3119,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T636"/>
+  <dimension ref="A1:T694"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G480" workbookViewId="0">
-      <selection activeCell="O506" sqref="O506"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O205" sqref="O205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
@@ -16630,1839 +16631,3601 @@
       <c r="P520"/>
       <c r="Q520"/>
     </row>
-    <row r="525" spans="15:19">
-      <c r="O525" t="s">
+    <row r="525" spans="15:17">
+      <c r="O525"/>
+      <c r="P525"/>
+      <c r="Q525"/>
+    </row>
+    <row r="526" spans="15:17">
+      <c r="O526"/>
+      <c r="P526"/>
+      <c r="Q526"/>
+    </row>
+    <row r="527" spans="15:17">
+      <c r="O527"/>
+      <c r="P527"/>
+      <c r="Q527"/>
+    </row>
+    <row r="528" spans="15:17">
+      <c r="O528"/>
+      <c r="P528"/>
+      <c r="Q528"/>
+    </row>
+    <row r="529" spans="15:17">
+      <c r="O529"/>
+      <c r="P529"/>
+      <c r="Q529"/>
+    </row>
+    <row r="530" spans="15:17">
+      <c r="O530"/>
+      <c r="P530"/>
+      <c r="Q530"/>
+    </row>
+    <row r="531" spans="15:17">
+      <c r="O531"/>
+      <c r="P531"/>
+      <c r="Q531"/>
+    </row>
+    <row r="532" spans="15:17">
+      <c r="O532"/>
+      <c r="P532"/>
+      <c r="Q532"/>
+    </row>
+    <row r="533" spans="15:17">
+      <c r="O533"/>
+      <c r="P533"/>
+      <c r="Q533"/>
+    </row>
+    <row r="534" spans="15:17">
+      <c r="O534"/>
+      <c r="P534"/>
+      <c r="Q534"/>
+    </row>
+    <row r="535" spans="15:17">
+      <c r="O535"/>
+      <c r="P535"/>
+      <c r="Q535"/>
+    </row>
+    <row r="536" spans="15:17">
+      <c r="O536"/>
+      <c r="P536"/>
+      <c r="Q536"/>
+    </row>
+    <row r="537" spans="15:17">
+      <c r="O537"/>
+      <c r="P537"/>
+      <c r="Q537"/>
+    </row>
+    <row r="538" spans="15:17">
+      <c r="O538"/>
+      <c r="P538"/>
+      <c r="Q538"/>
+    </row>
+    <row r="539" spans="15:17">
+      <c r="O539"/>
+      <c r="P539"/>
+      <c r="Q539"/>
+    </row>
+    <row r="540" spans="15:17">
+      <c r="O540"/>
+      <c r="P540"/>
+      <c r="Q540"/>
+    </row>
+    <row r="541" spans="15:17">
+      <c r="O541"/>
+      <c r="P541"/>
+      <c r="Q541"/>
+    </row>
+    <row r="542" spans="15:17">
+      <c r="O542"/>
+      <c r="P542"/>
+      <c r="Q542"/>
+    </row>
+    <row r="543" spans="15:17">
+      <c r="O543"/>
+      <c r="P543"/>
+      <c r="Q543"/>
+    </row>
+    <row r="544" spans="15:17">
+      <c r="O544"/>
+      <c r="P544"/>
+      <c r="Q544"/>
+    </row>
+    <row r="545" spans="15:17">
+      <c r="O545"/>
+      <c r="P545"/>
+      <c r="Q545"/>
+    </row>
+    <row r="546" spans="15:17">
+      <c r="O546"/>
+      <c r="P546"/>
+      <c r="Q546"/>
+    </row>
+    <row r="547" spans="15:17">
+      <c r="O547"/>
+      <c r="P547"/>
+      <c r="Q547"/>
+    </row>
+    <row r="548" spans="15:17">
+      <c r="O548"/>
+      <c r="P548"/>
+      <c r="Q548"/>
+    </row>
+    <row r="549" spans="15:17">
+      <c r="O549"/>
+      <c r="P549"/>
+      <c r="Q549"/>
+    </row>
+    <row r="550" spans="15:17">
+      <c r="O550"/>
+      <c r="P550"/>
+      <c r="Q550"/>
+    </row>
+    <row r="551" spans="15:17">
+      <c r="O551"/>
+      <c r="P551"/>
+      <c r="Q551"/>
+    </row>
+    <row r="552" spans="15:17">
+      <c r="O552"/>
+      <c r="P552"/>
+      <c r="Q552"/>
+    </row>
+    <row r="553" spans="15:17">
+      <c r="O553"/>
+      <c r="P553"/>
+      <c r="Q553"/>
+    </row>
+    <row r="554" spans="15:17">
+      <c r="O554"/>
+      <c r="P554"/>
+      <c r="Q554"/>
+    </row>
+    <row r="555" spans="15:17">
+      <c r="O555"/>
+      <c r="P555"/>
+      <c r="Q555"/>
+    </row>
+    <row r="556" spans="15:17">
+      <c r="O556"/>
+      <c r="P556"/>
+      <c r="Q556"/>
+    </row>
+    <row r="557" spans="15:17">
+      <c r="O557"/>
+      <c r="P557"/>
+      <c r="Q557"/>
+    </row>
+    <row r="558" spans="15:17">
+      <c r="O558"/>
+      <c r="P558"/>
+      <c r="Q558"/>
+    </row>
+    <row r="559" spans="15:17">
+      <c r="O559"/>
+      <c r="P559"/>
+      <c r="Q559"/>
+    </row>
+    <row r="560" spans="15:17">
+      <c r="O560"/>
+      <c r="P560"/>
+      <c r="Q560"/>
+    </row>
+    <row r="561" spans="15:17">
+      <c r="O561"/>
+      <c r="P561"/>
+      <c r="Q561"/>
+    </row>
+    <row r="562" spans="15:17">
+      <c r="O562"/>
+      <c r="P562"/>
+      <c r="Q562"/>
+    </row>
+    <row r="563" spans="15:17">
+      <c r="O563"/>
+      <c r="P563"/>
+      <c r="Q563"/>
+    </row>
+    <row r="564" spans="15:17">
+      <c r="O564"/>
+      <c r="P564"/>
+      <c r="Q564"/>
+    </row>
+    <row r="565" spans="15:17">
+      <c r="O565"/>
+      <c r="P565"/>
+      <c r="Q565"/>
+    </row>
+    <row r="566" spans="15:17">
+      <c r="O566"/>
+      <c r="P566"/>
+      <c r="Q566"/>
+    </row>
+    <row r="567" spans="15:17">
+      <c r="O567"/>
+      <c r="P567"/>
+      <c r="Q567"/>
+    </row>
+    <row r="568" spans="15:17">
+      <c r="O568"/>
+      <c r="P568"/>
+      <c r="Q568"/>
+    </row>
+    <row r="569" spans="15:17">
+      <c r="O569"/>
+      <c r="P569"/>
+      <c r="Q569"/>
+    </row>
+    <row r="570" spans="15:17">
+      <c r="O570"/>
+      <c r="P570"/>
+      <c r="Q570"/>
+    </row>
+    <row r="571" spans="15:17">
+      <c r="O571"/>
+      <c r="P571"/>
+      <c r="Q571"/>
+    </row>
+    <row r="572" spans="15:17">
+      <c r="O572"/>
+      <c r="P572"/>
+      <c r="Q572"/>
+    </row>
+    <row r="573" spans="15:17">
+      <c r="O573"/>
+      <c r="P573"/>
+      <c r="Q573"/>
+    </row>
+    <row r="574" spans="15:17">
+      <c r="O574"/>
+      <c r="P574"/>
+      <c r="Q574"/>
+    </row>
+    <row r="575" spans="15:17">
+      <c r="O575"/>
+      <c r="P575"/>
+      <c r="Q575"/>
+    </row>
+    <row r="576" spans="15:17">
+      <c r="O576"/>
+      <c r="P576"/>
+      <c r="Q576"/>
+    </row>
+    <row r="577" spans="15:17">
+      <c r="O577"/>
+      <c r="P577"/>
+      <c r="Q577"/>
+    </row>
+    <row r="578" spans="15:17">
+      <c r="O578"/>
+      <c r="P578"/>
+      <c r="Q578"/>
+    </row>
+    <row r="583" spans="15:17">
+      <c r="O583"/>
+      <c r="P583"/>
+      <c r="Q583"/>
+    </row>
+    <row r="584" spans="15:17">
+      <c r="O584"/>
+      <c r="P584"/>
+      <c r="Q584"/>
+    </row>
+    <row r="585" spans="15:17">
+      <c r="O585"/>
+      <c r="P585"/>
+      <c r="Q585"/>
+    </row>
+    <row r="586" spans="15:17">
+      <c r="O586"/>
+      <c r="P586"/>
+      <c r="Q586"/>
+    </row>
+    <row r="587" spans="15:17">
+      <c r="O587"/>
+      <c r="P587"/>
+      <c r="Q587"/>
+    </row>
+    <row r="588" spans="15:17">
+      <c r="O588"/>
+      <c r="P588"/>
+      <c r="Q588"/>
+    </row>
+    <row r="589" spans="15:17">
+      <c r="O589"/>
+      <c r="P589"/>
+      <c r="Q589"/>
+    </row>
+    <row r="590" spans="15:17">
+      <c r="O590"/>
+      <c r="P590"/>
+      <c r="Q590"/>
+    </row>
+    <row r="591" spans="15:17">
+      <c r="O591"/>
+      <c r="P591"/>
+      <c r="Q591"/>
+    </row>
+    <row r="592" spans="15:17">
+      <c r="O592"/>
+      <c r="P592"/>
+      <c r="Q592"/>
+    </row>
+    <row r="593" spans="15:17">
+      <c r="O593"/>
+      <c r="P593"/>
+      <c r="Q593"/>
+    </row>
+    <row r="594" spans="15:17">
+      <c r="O594"/>
+      <c r="P594"/>
+      <c r="Q594"/>
+    </row>
+    <row r="595" spans="15:17">
+      <c r="O595"/>
+      <c r="P595"/>
+      <c r="Q595"/>
+    </row>
+    <row r="596" spans="15:17">
+      <c r="O596"/>
+      <c r="P596"/>
+      <c r="Q596"/>
+    </row>
+    <row r="597" spans="15:17">
+      <c r="O597"/>
+      <c r="P597"/>
+      <c r="Q597"/>
+    </row>
+    <row r="598" spans="15:17">
+      <c r="O598"/>
+      <c r="P598"/>
+      <c r="Q598"/>
+    </row>
+    <row r="599" spans="15:17">
+      <c r="O599"/>
+      <c r="P599"/>
+      <c r="Q599"/>
+    </row>
+    <row r="600" spans="15:17">
+      <c r="O600"/>
+      <c r="P600"/>
+      <c r="Q600"/>
+    </row>
+    <row r="601" spans="15:17">
+      <c r="O601"/>
+      <c r="P601"/>
+      <c r="Q601"/>
+    </row>
+    <row r="602" spans="15:17">
+      <c r="O602"/>
+      <c r="P602"/>
+      <c r="Q602"/>
+    </row>
+    <row r="603" spans="15:17">
+      <c r="O603"/>
+      <c r="P603"/>
+      <c r="Q603"/>
+    </row>
+    <row r="604" spans="15:17">
+      <c r="O604"/>
+      <c r="P604"/>
+      <c r="Q604"/>
+    </row>
+    <row r="605" spans="15:17">
+      <c r="O605"/>
+      <c r="P605"/>
+      <c r="Q605"/>
+    </row>
+    <row r="606" spans="15:17">
+      <c r="O606"/>
+      <c r="P606"/>
+      <c r="Q606"/>
+    </row>
+    <row r="607" spans="15:17">
+      <c r="O607"/>
+      <c r="P607"/>
+      <c r="Q607"/>
+    </row>
+    <row r="608" spans="15:17">
+      <c r="O608"/>
+      <c r="P608"/>
+      <c r="Q608"/>
+    </row>
+    <row r="609" spans="15:17">
+      <c r="O609"/>
+      <c r="P609"/>
+      <c r="Q609"/>
+    </row>
+    <row r="610" spans="15:17">
+      <c r="O610"/>
+      <c r="P610"/>
+      <c r="Q610"/>
+    </row>
+    <row r="611" spans="15:17">
+      <c r="O611"/>
+      <c r="P611"/>
+      <c r="Q611"/>
+    </row>
+    <row r="612" spans="15:17">
+      <c r="O612"/>
+      <c r="P612"/>
+      <c r="Q612"/>
+    </row>
+    <row r="613" spans="15:17">
+      <c r="O613"/>
+      <c r="P613"/>
+      <c r="Q613"/>
+    </row>
+    <row r="614" spans="15:17">
+      <c r="O614"/>
+      <c r="P614"/>
+      <c r="Q614"/>
+    </row>
+    <row r="615" spans="15:17">
+      <c r="O615"/>
+      <c r="P615"/>
+      <c r="Q615"/>
+    </row>
+    <row r="616" spans="15:17">
+      <c r="O616"/>
+      <c r="P616"/>
+      <c r="Q616"/>
+    </row>
+    <row r="617" spans="15:17">
+      <c r="O617"/>
+      <c r="P617"/>
+      <c r="Q617"/>
+    </row>
+    <row r="618" spans="15:17">
+      <c r="O618"/>
+      <c r="P618"/>
+      <c r="Q618"/>
+    </row>
+    <row r="619" spans="15:17">
+      <c r="O619"/>
+      <c r="P619"/>
+      <c r="Q619"/>
+    </row>
+    <row r="620" spans="15:17">
+      <c r="O620"/>
+      <c r="P620"/>
+      <c r="Q620"/>
+    </row>
+    <row r="621" spans="15:17">
+      <c r="O621"/>
+      <c r="P621"/>
+      <c r="Q621"/>
+    </row>
+    <row r="622" spans="15:17">
+      <c r="O622"/>
+      <c r="P622"/>
+      <c r="Q622"/>
+    </row>
+    <row r="623" spans="15:17">
+      <c r="O623"/>
+      <c r="P623"/>
+      <c r="Q623"/>
+    </row>
+    <row r="624" spans="15:17">
+      <c r="O624"/>
+      <c r="P624"/>
+      <c r="Q624"/>
+    </row>
+    <row r="625" spans="15:17">
+      <c r="O625"/>
+      <c r="P625"/>
+      <c r="Q625"/>
+    </row>
+    <row r="626" spans="15:17">
+      <c r="O626"/>
+      <c r="P626"/>
+      <c r="Q626"/>
+    </row>
+    <row r="627" spans="15:17">
+      <c r="O627"/>
+      <c r="P627"/>
+      <c r="Q627"/>
+    </row>
+    <row r="628" spans="15:17">
+      <c r="O628"/>
+      <c r="P628"/>
+      <c r="Q628"/>
+    </row>
+    <row r="629" spans="15:17">
+      <c r="O629"/>
+      <c r="P629"/>
+      <c r="Q629"/>
+    </row>
+    <row r="630" spans="15:17">
+      <c r="O630"/>
+      <c r="P630"/>
+      <c r="Q630"/>
+    </row>
+    <row r="631" spans="15:17">
+      <c r="O631"/>
+      <c r="P631"/>
+      <c r="Q631"/>
+    </row>
+    <row r="632" spans="15:17">
+      <c r="O632"/>
+      <c r="P632"/>
+      <c r="Q632"/>
+    </row>
+    <row r="633" spans="15:17">
+      <c r="O633"/>
+      <c r="P633"/>
+      <c r="Q633"/>
+    </row>
+    <row r="634" spans="15:17">
+      <c r="O634"/>
+      <c r="P634"/>
+      <c r="Q634"/>
+    </row>
+    <row r="635" spans="15:17">
+      <c r="O635"/>
+      <c r="P635"/>
+      <c r="Q635"/>
+    </row>
+    <row r="636" spans="15:17">
+      <c r="O636"/>
+      <c r="P636"/>
+      <c r="Q636"/>
+    </row>
+    <row r="641" spans="15:17">
+      <c r="O641"/>
+      <c r="P641"/>
+      <c r="Q641"/>
+    </row>
+    <row r="642" spans="15:17">
+      <c r="O642"/>
+      <c r="P642"/>
+      <c r="Q642"/>
+    </row>
+    <row r="643" spans="15:17">
+      <c r="O643"/>
+      <c r="P643"/>
+      <c r="Q643"/>
+    </row>
+    <row r="644" spans="15:17">
+      <c r="O644"/>
+      <c r="P644"/>
+      <c r="Q644"/>
+    </row>
+    <row r="645" spans="15:17">
+      <c r="O645"/>
+      <c r="P645"/>
+      <c r="Q645"/>
+    </row>
+    <row r="646" spans="15:17">
+      <c r="O646"/>
+      <c r="P646"/>
+      <c r="Q646"/>
+    </row>
+    <row r="647" spans="15:17">
+      <c r="O647"/>
+      <c r="P647"/>
+      <c r="Q647"/>
+    </row>
+    <row r="648" spans="15:17">
+      <c r="O648"/>
+      <c r="P648"/>
+      <c r="Q648"/>
+    </row>
+    <row r="649" spans="15:17">
+      <c r="O649"/>
+      <c r="P649"/>
+      <c r="Q649"/>
+    </row>
+    <row r="650" spans="15:17">
+      <c r="O650"/>
+      <c r="P650"/>
+      <c r="Q650"/>
+    </row>
+    <row r="651" spans="15:17">
+      <c r="O651"/>
+      <c r="P651"/>
+      <c r="Q651"/>
+    </row>
+    <row r="652" spans="15:17">
+      <c r="O652"/>
+      <c r="P652"/>
+      <c r="Q652"/>
+    </row>
+    <row r="653" spans="15:17">
+      <c r="O653"/>
+      <c r="P653"/>
+      <c r="Q653"/>
+    </row>
+    <row r="654" spans="15:17">
+      <c r="O654"/>
+      <c r="P654"/>
+      <c r="Q654"/>
+    </row>
+    <row r="655" spans="15:17">
+      <c r="O655"/>
+      <c r="P655"/>
+      <c r="Q655"/>
+    </row>
+    <row r="656" spans="15:17">
+      <c r="O656"/>
+      <c r="P656"/>
+      <c r="Q656"/>
+    </row>
+    <row r="657" spans="15:17">
+      <c r="O657"/>
+      <c r="P657"/>
+      <c r="Q657"/>
+    </row>
+    <row r="658" spans="15:17">
+      <c r="O658"/>
+      <c r="P658"/>
+      <c r="Q658"/>
+    </row>
+    <row r="659" spans="15:17">
+      <c r="O659"/>
+      <c r="P659"/>
+      <c r="Q659"/>
+    </row>
+    <row r="660" spans="15:17">
+      <c r="O660"/>
+      <c r="P660"/>
+      <c r="Q660"/>
+    </row>
+    <row r="661" spans="15:17">
+      <c r="O661"/>
+      <c r="P661"/>
+      <c r="Q661"/>
+    </row>
+    <row r="662" spans="15:17">
+      <c r="O662"/>
+      <c r="P662"/>
+      <c r="Q662"/>
+    </row>
+    <row r="663" spans="15:17">
+      <c r="O663"/>
+      <c r="P663"/>
+      <c r="Q663"/>
+    </row>
+    <row r="664" spans="15:17">
+      <c r="O664"/>
+      <c r="P664"/>
+      <c r="Q664"/>
+    </row>
+    <row r="665" spans="15:17">
+      <c r="O665"/>
+      <c r="P665"/>
+      <c r="Q665"/>
+    </row>
+    <row r="666" spans="15:17">
+      <c r="O666"/>
+      <c r="P666"/>
+      <c r="Q666"/>
+    </row>
+    <row r="667" spans="15:17">
+      <c r="O667"/>
+      <c r="P667"/>
+      <c r="Q667"/>
+    </row>
+    <row r="668" spans="15:17">
+      <c r="O668"/>
+      <c r="P668"/>
+      <c r="Q668"/>
+    </row>
+    <row r="669" spans="15:17">
+      <c r="O669"/>
+      <c r="P669"/>
+      <c r="Q669"/>
+    </row>
+    <row r="670" spans="15:17">
+      <c r="O670"/>
+      <c r="P670"/>
+      <c r="Q670"/>
+    </row>
+    <row r="671" spans="15:17">
+      <c r="O671"/>
+      <c r="P671"/>
+      <c r="Q671"/>
+    </row>
+    <row r="672" spans="15:17">
+      <c r="O672"/>
+      <c r="P672"/>
+      <c r="Q672"/>
+    </row>
+    <row r="673" spans="15:17">
+      <c r="O673"/>
+      <c r="P673"/>
+      <c r="Q673"/>
+    </row>
+    <row r="674" spans="15:17">
+      <c r="O674"/>
+      <c r="P674"/>
+      <c r="Q674"/>
+    </row>
+    <row r="675" spans="15:17">
+      <c r="O675"/>
+      <c r="P675"/>
+      <c r="Q675"/>
+    </row>
+    <row r="676" spans="15:17">
+      <c r="O676"/>
+      <c r="P676"/>
+      <c r="Q676"/>
+    </row>
+    <row r="677" spans="15:17">
+      <c r="O677"/>
+      <c r="P677"/>
+      <c r="Q677"/>
+    </row>
+    <row r="678" spans="15:17">
+      <c r="O678"/>
+      <c r="P678"/>
+      <c r="Q678"/>
+    </row>
+    <row r="679" spans="15:17">
+      <c r="O679"/>
+      <c r="P679"/>
+      <c r="Q679"/>
+    </row>
+    <row r="680" spans="15:17">
+      <c r="O680"/>
+      <c r="P680"/>
+      <c r="Q680"/>
+    </row>
+    <row r="681" spans="15:17">
+      <c r="O681"/>
+      <c r="P681"/>
+      <c r="Q681"/>
+    </row>
+    <row r="682" spans="15:17">
+      <c r="O682"/>
+      <c r="P682"/>
+      <c r="Q682"/>
+    </row>
+    <row r="683" spans="15:17">
+      <c r="O683"/>
+      <c r="P683"/>
+      <c r="Q683"/>
+    </row>
+    <row r="684" spans="15:17">
+      <c r="O684"/>
+      <c r="P684"/>
+      <c r="Q684"/>
+    </row>
+    <row r="685" spans="15:17">
+      <c r="O685"/>
+      <c r="P685"/>
+      <c r="Q685"/>
+    </row>
+    <row r="686" spans="15:17">
+      <c r="O686"/>
+      <c r="P686"/>
+      <c r="Q686"/>
+    </row>
+    <row r="687" spans="15:17">
+      <c r="O687"/>
+      <c r="P687"/>
+      <c r="Q687"/>
+    </row>
+    <row r="688" spans="15:17">
+      <c r="O688"/>
+      <c r="P688"/>
+      <c r="Q688"/>
+    </row>
+    <row r="689" spans="15:17">
+      <c r="O689"/>
+      <c r="P689"/>
+      <c r="Q689"/>
+    </row>
+    <row r="690" spans="15:17">
+      <c r="O690"/>
+      <c r="P690"/>
+      <c r="Q690"/>
+    </row>
+    <row r="691" spans="15:17">
+      <c r="O691"/>
+      <c r="P691"/>
+      <c r="Q691"/>
+    </row>
+    <row r="692" spans="15:17">
+      <c r="O692"/>
+      <c r="P692"/>
+      <c r="Q692"/>
+    </row>
+    <row r="693" spans="15:17">
+      <c r="O693"/>
+      <c r="P693"/>
+      <c r="Q693"/>
+    </row>
+    <row r="694" spans="15:17">
+      <c r="O694"/>
+      <c r="P694"/>
+      <c r="Q694"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E172"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>440</v>
       </c>
-      <c r="P525" t="s">
+      <c r="B5" t="s">
         <v>441</v>
       </c>
-      <c r="Q525" t="s">
+      <c r="C5" t="s">
         <v>442</v>
       </c>
-      <c r="R525" t="s">
+      <c r="D5" t="s">
         <v>443</v>
       </c>
-      <c r="S525" t="s">
+      <c r="E5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="526" spans="15:19">
-      <c r="O526" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>445</v>
       </c>
-      <c r="P526" t="s">
+      <c r="B6" t="s">
         <v>446</v>
       </c>
-      <c r="Q526" t="s">
+      <c r="C6" t="s">
         <v>447</v>
       </c>
-      <c r="R526" t="s">
+      <c r="D6" t="s">
         <v>448</v>
       </c>
-      <c r="S526" t="s">
+      <c r="E6" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="527" spans="15:19">
-      <c r="O527" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>450</v>
       </c>
-      <c r="P527" t="s">
+      <c r="B7" t="s">
         <v>446</v>
       </c>
-      <c r="Q527" t="s">
+      <c r="C7" t="s">
         <v>451</v>
       </c>
-      <c r="R527" t="s">
+      <c r="D7" t="s">
         <v>452</v>
       </c>
-      <c r="S527" t="s">
+      <c r="E7" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="528" spans="15:19">
-      <c r="O528" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>454</v>
       </c>
-      <c r="P528" t="s">
+      <c r="B8" t="s">
         <v>446</v>
       </c>
-      <c r="Q528" t="s">
+      <c r="C8" t="s">
         <v>455</v>
       </c>
-      <c r="R528" t="s">
+      <c r="D8" t="s">
         <v>456</v>
       </c>
-      <c r="S528" t="s">
+      <c r="E8" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="529" spans="15:19">
-      <c r="O529" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>458</v>
       </c>
-      <c r="P529" t="s">
+      <c r="B9" t="s">
         <v>459</v>
       </c>
-      <c r="Q529" t="s">
+      <c r="C9" t="s">
         <v>460</v>
       </c>
-      <c r="R529" t="s">
+      <c r="D9" t="s">
         <v>461</v>
       </c>
-      <c r="S529" t="s">
+      <c r="E9" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="530" spans="15:19">
-      <c r="O530" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>440</v>
       </c>
-      <c r="P530" t="s">
+      <c r="B10" t="s">
         <v>463</v>
       </c>
-      <c r="Q530" t="s">
+      <c r="C10" t="s">
         <v>464</v>
       </c>
-      <c r="R530" t="s">
+      <c r="D10" t="s">
         <v>448</v>
       </c>
-      <c r="S530" t="s">
+      <c r="E10" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="531" spans="15:19">
-      <c r="O531" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>458</v>
       </c>
-      <c r="P531" t="s">
+      <c r="B11" t="s">
         <v>465</v>
       </c>
-      <c r="Q531" t="s">
+      <c r="C11" t="s">
         <v>466</v>
       </c>
-      <c r="R531" t="s">
+      <c r="D11" t="s">
         <v>467</v>
       </c>
-      <c r="S531" t="s">
+      <c r="E11" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="532" spans="15:19">
-      <c r="O532" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>454</v>
       </c>
-      <c r="P532" t="s">
+      <c r="B12" t="s">
         <v>469</v>
       </c>
-      <c r="Q532" t="s">
+      <c r="C12" t="s">
         <v>470</v>
       </c>
-      <c r="R532" t="s">
+      <c r="D12" t="s">
         <v>471</v>
       </c>
-      <c r="S532" t="s">
+      <c r="E12" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="533" spans="15:19">
-      <c r="O533" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>473</v>
       </c>
-      <c r="P533" t="s">
+      <c r="B13" t="s">
         <v>474</v>
       </c>
-      <c r="Q533" t="s">
+      <c r="C13" t="s">
         <v>475</v>
       </c>
-      <c r="R533" t="s">
+      <c r="D13" t="s">
         <v>476</v>
       </c>
-      <c r="S533" t="s">
+      <c r="E13" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="534" spans="15:19">
-      <c r="O534" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>478</v>
       </c>
-      <c r="P534" t="s">
+      <c r="B14" t="s">
         <v>479</v>
       </c>
-      <c r="Q534" t="s">
+      <c r="C14" t="s">
         <v>480</v>
       </c>
-      <c r="R534" t="s">
+      <c r="D14" t="s">
         <v>481</v>
       </c>
-      <c r="S534" t="s">
+      <c r="E14" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="535" spans="15:19">
-      <c r="O535" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>483</v>
       </c>
-      <c r="P535" t="s">
+      <c r="B15" t="s">
         <v>484</v>
       </c>
-      <c r="Q535" t="s">
+      <c r="C15" t="s">
         <v>485</v>
       </c>
-      <c r="R535" t="s">
+      <c r="D15" t="s">
         <v>486</v>
       </c>
-      <c r="S535" t="s">
+      <c r="E15" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="536" spans="15:19">
-      <c r="O536" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>445</v>
       </c>
-      <c r="P536" t="s">
+      <c r="B16" t="s">
         <v>484</v>
       </c>
-      <c r="Q536" t="s">
+      <c r="C16" t="s">
         <v>487</v>
       </c>
-      <c r="R536" t="s">
+      <c r="D16" t="s">
         <v>486</v>
       </c>
-      <c r="S536" t="s">
+      <c r="E16" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="537" spans="15:19">
-      <c r="O537" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>454</v>
       </c>
-      <c r="P537" t="s">
+      <c r="B17" t="s">
         <v>484</v>
       </c>
-      <c r="Q537" t="s">
+      <c r="C17" t="s">
         <v>488</v>
       </c>
-      <c r="R537" t="s">
+      <c r="D17" t="s">
         <v>489</v>
       </c>
-      <c r="S537" t="s">
+      <c r="E17" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="538" spans="15:19">
-      <c r="O538" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>490</v>
       </c>
-      <c r="P538" t="s">
+      <c r="B18" t="s">
         <v>491</v>
       </c>
-      <c r="Q538" t="s">
+      <c r="C18" t="s">
         <v>492</v>
       </c>
-      <c r="R538" t="s">
+      <c r="D18" t="s">
         <v>493</v>
       </c>
-      <c r="S538" t="s">
+      <c r="E18" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="539" spans="15:19">
-      <c r="O539" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>454</v>
       </c>
-      <c r="P539" t="s">
+      <c r="B19" t="s">
         <v>491</v>
       </c>
-      <c r="Q539" t="s">
+      <c r="C19" t="s">
         <v>495</v>
       </c>
-      <c r="R539" t="s">
+      <c r="D19" t="s">
         <v>496</v>
       </c>
-      <c r="S539" t="s">
+      <c r="E19" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="540" spans="15:19">
-      <c r="O540" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>498</v>
       </c>
-      <c r="P540" t="s">
+      <c r="B20" t="s">
         <v>499</v>
       </c>
-      <c r="Q540" t="s">
+      <c r="C20" t="s">
         <v>500</v>
       </c>
-      <c r="R540" t="s">
+      <c r="D20" t="s">
         <v>501</v>
       </c>
-      <c r="S540" t="s">
+      <c r="E20" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="541" spans="15:19">
-      <c r="O541" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>503</v>
       </c>
-      <c r="P541" t="s">
+      <c r="B21" t="s">
         <v>499</v>
       </c>
-      <c r="Q541" t="s">
+      <c r="C21" t="s">
         <v>504</v>
       </c>
-      <c r="R541" t="s">
+      <c r="D21" t="s">
         <v>505</v>
       </c>
-      <c r="S541" t="s">
+      <c r="E21" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="542" spans="15:19">
-      <c r="O542" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>454</v>
       </c>
-      <c r="P542" t="s">
+      <c r="B22" t="s">
         <v>507</v>
       </c>
-      <c r="Q542" t="s">
+      <c r="C22" t="s">
         <v>508</v>
       </c>
-      <c r="R542" t="s">
+      <c r="D22" t="s">
         <v>509</v>
       </c>
-      <c r="S542" t="s">
+      <c r="E22" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="543" spans="15:19">
-      <c r="O543" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>458</v>
       </c>
-      <c r="P543" t="s">
+      <c r="B23" t="s">
         <v>510</v>
       </c>
-      <c r="Q543" t="s">
+      <c r="C23" t="s">
         <v>511</v>
       </c>
-      <c r="R543" t="s">
+      <c r="D23" t="s">
         <v>512</v>
       </c>
-      <c r="S543" t="s">
+      <c r="E23" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="544" spans="15:19">
-      <c r="O544" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>514</v>
       </c>
-      <c r="P544" t="s">
+      <c r="B24" t="s">
         <v>510</v>
       </c>
-      <c r="Q544" t="s">
+      <c r="C24" t="s">
         <v>515</v>
       </c>
-      <c r="R544" t="s">
+      <c r="D24" t="s">
         <v>516</v>
       </c>
-      <c r="S544" t="s">
+      <c r="E24" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="545" spans="15:19">
-      <c r="O545" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>518</v>
       </c>
-      <c r="P545" t="s">
+      <c r="B25" t="s">
         <v>510</v>
       </c>
-      <c r="Q545" t="s">
+      <c r="C25" t="s">
         <v>519</v>
       </c>
-      <c r="R545" t="s">
+      <c r="D25" t="s">
         <v>520</v>
       </c>
-      <c r="S545" t="s">
+      <c r="E25" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="546" spans="15:19">
-      <c r="O546" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>454</v>
       </c>
-      <c r="P546" t="s">
+      <c r="B26" t="s">
         <v>510</v>
       </c>
-      <c r="Q546" t="s">
+      <c r="C26" t="s">
         <v>522</v>
       </c>
-      <c r="R546" t="s">
+      <c r="D26" t="s">
         <v>523</v>
       </c>
-      <c r="S546" t="s">
+      <c r="E26" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="547" spans="15:19">
-      <c r="O547" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>458</v>
       </c>
-      <c r="P547" t="s">
+      <c r="B27" t="s">
         <v>524</v>
       </c>
-      <c r="Q547" t="s">
+      <c r="C27" t="s">
         <v>525</v>
       </c>
-      <c r="R547" t="s">
+      <c r="D27" t="s">
         <v>526</v>
       </c>
-      <c r="S547" t="s">
+      <c r="E27" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="548" spans="15:19">
-      <c r="O548" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
         <v>454</v>
       </c>
-      <c r="P548" t="s">
+      <c r="B28" t="s">
         <v>527</v>
       </c>
-      <c r="Q548" t="s">
+      <c r="C28" t="s">
         <v>528</v>
       </c>
-      <c r="R548" t="s">
+      <c r="D28" t="s">
         <v>529</v>
       </c>
-      <c r="S548" t="s">
+      <c r="E28" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="549" spans="15:19">
-      <c r="O549" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>458</v>
       </c>
-      <c r="P549" t="s">
+      <c r="B29" t="s">
         <v>527</v>
       </c>
-      <c r="Q549" t="s">
+      <c r="C29" t="s">
         <v>530</v>
       </c>
-      <c r="R549" t="s">
+      <c r="D29" t="s">
         <v>531</v>
       </c>
-      <c r="S549" t="s">
+      <c r="E29" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="550" spans="15:19">
-      <c r="O550" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>533</v>
       </c>
-      <c r="P550" t="s">
+      <c r="B30" t="s">
         <v>527</v>
       </c>
-      <c r="Q550" t="s">
+      <c r="C30" t="s">
         <v>534</v>
       </c>
-      <c r="R550" t="s">
+      <c r="D30" t="s">
         <v>535</v>
       </c>
-      <c r="S550" t="s">
+      <c r="E30" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="551" spans="15:19">
-      <c r="O551" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>537</v>
       </c>
-      <c r="P551" t="s">
+      <c r="B31" t="s">
         <v>527</v>
       </c>
-      <c r="Q551" t="s">
+      <c r="C31" t="s">
         <v>538</v>
       </c>
-      <c r="R551" t="s">
+      <c r="D31" t="s">
         <v>539</v>
       </c>
-      <c r="S551" t="s">
+      <c r="E31" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="552" spans="15:19">
-      <c r="O552" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>540</v>
       </c>
-      <c r="P552" t="s">
+      <c r="B32" t="s">
         <v>541</v>
       </c>
-      <c r="Q552" t="s">
+      <c r="C32" t="s">
         <v>542</v>
       </c>
-      <c r="R552" t="s">
+      <c r="D32" t="s">
         <v>452</v>
       </c>
-      <c r="S552" t="s">
+      <c r="E32" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="553" spans="15:19">
-      <c r="O553" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>544</v>
       </c>
-      <c r="P553" t="s">
+      <c r="B33" t="s">
         <v>545</v>
       </c>
-      <c r="Q553" t="s">
+      <c r="C33" t="s">
         <v>546</v>
       </c>
-      <c r="R553" t="s">
+      <c r="D33" t="s">
         <v>547</v>
       </c>
-      <c r="S553" t="s">
+      <c r="E33" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="554" spans="15:19">
-      <c r="O554" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>454</v>
       </c>
-      <c r="P554" t="s">
+      <c r="B34" t="s">
         <v>545</v>
       </c>
-      <c r="Q554" t="s">
+      <c r="C34" t="s">
         <v>548</v>
       </c>
-      <c r="R554" t="s">
+      <c r="D34" t="s">
         <v>549</v>
       </c>
-      <c r="S554" t="s">
+      <c r="E34" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="555" spans="15:19">
-      <c r="O555" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>458</v>
       </c>
-      <c r="P555" t="s">
+      <c r="B35" t="s">
         <v>550</v>
       </c>
-      <c r="Q555" t="s">
+      <c r="C35" t="s">
         <v>551</v>
       </c>
-      <c r="R555" t="s">
+      <c r="D35" t="s">
         <v>552</v>
       </c>
-      <c r="S555" t="s">
+      <c r="E35" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="556" spans="15:19">
-      <c r="O556" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>553</v>
       </c>
-      <c r="P556" t="s">
+      <c r="B36" t="s">
         <v>550</v>
       </c>
-      <c r="Q556" t="s">
+      <c r="C36" t="s">
         <v>554</v>
       </c>
-      <c r="R556" t="s">
+      <c r="D36" t="s">
         <v>555</v>
       </c>
-      <c r="S556" t="s">
+      <c r="E36" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="557" spans="15:19">
-      <c r="O557" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>557</v>
       </c>
-      <c r="P557" t="s">
+      <c r="B37" t="s">
         <v>550</v>
       </c>
-      <c r="Q557" t="s">
+      <c r="C37" t="s">
         <v>558</v>
       </c>
-      <c r="R557" t="s">
+      <c r="D37" t="s">
         <v>559</v>
       </c>
-      <c r="S557" t="s">
+      <c r="E37" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="558" spans="15:19">
-      <c r="O558" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>561</v>
       </c>
-      <c r="P558" t="s">
+      <c r="B38" t="s">
         <v>550</v>
       </c>
-      <c r="Q558" t="s">
+      <c r="C38" t="s">
         <v>562</v>
       </c>
-      <c r="R558" t="s">
+      <c r="D38" t="s">
         <v>563</v>
       </c>
-      <c r="S558" t="s">
+      <c r="E38" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="559" spans="15:19">
-      <c r="O559" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>565</v>
       </c>
-      <c r="P559" t="s">
+      <c r="B39" t="s">
         <v>550</v>
       </c>
-      <c r="Q559" t="s">
+      <c r="C39" t="s">
         <v>566</v>
       </c>
-      <c r="R559" t="s">
+      <c r="D39" t="s">
         <v>567</v>
       </c>
-      <c r="S559" t="s">
+      <c r="E39" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="560" spans="15:19">
-      <c r="O560" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>454</v>
       </c>
-      <c r="P560" t="s">
+      <c r="B40" t="s">
         <v>550</v>
       </c>
-      <c r="Q560" t="s">
+      <c r="C40" t="s">
         <v>569</v>
       </c>
-      <c r="R560" t="s">
+      <c r="D40" t="s">
         <v>570</v>
       </c>
-      <c r="S560" t="s">
+      <c r="E40" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="561" spans="15:19">
-      <c r="O561" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>572</v>
       </c>
-      <c r="P561" t="s">
+      <c r="B41" t="s">
         <v>573</v>
       </c>
-      <c r="Q561" t="s">
+      <c r="C41" t="s">
         <v>447</v>
       </c>
-      <c r="R561" t="s">
+      <c r="D41" t="s">
         <v>574</v>
       </c>
-      <c r="S561" t="s">
+      <c r="E41" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="562" spans="15:19">
-      <c r="O562" t="s">
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
         <v>454</v>
       </c>
-      <c r="P562" t="s">
+      <c r="B42" t="s">
         <v>576</v>
       </c>
-      <c r="Q562" t="s">
+      <c r="C42" t="s">
         <v>577</v>
       </c>
-      <c r="R562" t="s">
+      <c r="D42" t="s">
         <v>578</v>
       </c>
-      <c r="S562" t="s">
+      <c r="E42" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="563" spans="15:19">
-      <c r="O563" t="s">
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
         <v>458</v>
       </c>
-      <c r="P563" t="s">
+      <c r="B43" t="s">
         <v>579</v>
       </c>
-      <c r="Q563" t="s">
+      <c r="C43" t="s">
         <v>580</v>
       </c>
-      <c r="R563" t="s">
+      <c r="D43" t="s">
         <v>581</v>
       </c>
-      <c r="S563" t="s">
+      <c r="E43" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="564" spans="15:19">
-      <c r="O564" t="s">
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
         <v>454</v>
       </c>
-      <c r="P564" t="s">
+      <c r="B44" t="s">
         <v>579</v>
       </c>
-      <c r="Q564" t="s">
+      <c r="C44" t="s">
         <v>582</v>
       </c>
-      <c r="R564" t="s">
+      <c r="D44" t="s">
         <v>583</v>
       </c>
-      <c r="S564" t="s">
+      <c r="E44" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="565" spans="15:19">
-      <c r="O565" t="s">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
         <v>440</v>
       </c>
-      <c r="P565" t="s">
+      <c r="B45" t="s">
         <v>585</v>
       </c>
-      <c r="Q565" t="s">
+      <c r="C45" t="s">
         <v>586</v>
       </c>
-      <c r="R565" t="s">
+      <c r="D45" t="s">
         <v>587</v>
       </c>
-      <c r="S565" t="s">
+      <c r="E45" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="566" spans="15:19">
-      <c r="O566" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>454</v>
       </c>
-      <c r="P566" t="s">
+      <c r="B46" t="s">
         <v>588</v>
       </c>
-      <c r="Q566" t="s">
+      <c r="C46" t="s">
         <v>589</v>
       </c>
-      <c r="R566" t="s">
+      <c r="D46" t="s">
         <v>590</v>
       </c>
-      <c r="S566" t="s">
+      <c r="E46" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="567" spans="15:19">
-      <c r="O567" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
         <v>458</v>
       </c>
-      <c r="P567" t="s">
+      <c r="B47" t="s">
         <v>592</v>
       </c>
-      <c r="Q567" t="s">
+      <c r="C47" t="s">
         <v>593</v>
       </c>
-      <c r="R567" t="s">
+      <c r="D47" t="s">
         <v>594</v>
       </c>
-      <c r="S567" t="s">
+      <c r="E47" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="568" spans="15:19">
-      <c r="O568" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
         <v>595</v>
       </c>
-      <c r="P568" t="s">
+      <c r="B48" t="s">
         <v>596</v>
       </c>
-      <c r="Q568" t="s">
+      <c r="C48" t="s">
         <v>597</v>
       </c>
-      <c r="R568" t="s">
+      <c r="D48" t="s">
         <v>598</v>
       </c>
-      <c r="S568" t="s">
+      <c r="E48" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="569" spans="15:19">
-      <c r="O569" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
         <v>458</v>
       </c>
-      <c r="P569" t="s">
+      <c r="B49" t="s">
         <v>596</v>
       </c>
-      <c r="Q569" t="s">
+      <c r="C49" t="s">
         <v>600</v>
       </c>
-      <c r="R569" t="s">
+      <c r="D49" t="s">
         <v>601</v>
       </c>
-      <c r="S569" t="s">
+      <c r="E49" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="570" spans="15:19">
-      <c r="O570" t="s">
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
         <v>602</v>
       </c>
-      <c r="P570" t="s">
+      <c r="B50" t="s">
         <v>596</v>
       </c>
-      <c r="Q570" t="s">
+      <c r="C50" t="s">
         <v>603</v>
       </c>
-      <c r="R570" t="s">
+      <c r="D50" t="s">
         <v>604</v>
       </c>
-      <c r="S570" t="s">
+      <c r="E50" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="571" spans="15:19">
-      <c r="O571" t="s">
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
         <v>605</v>
       </c>
-      <c r="P571" t="s">
+      <c r="B51" t="s">
         <v>606</v>
       </c>
-      <c r="Q571" t="s">
+      <c r="C51" t="s">
         <v>607</v>
       </c>
-      <c r="R571" t="s">
+      <c r="D51" t="s">
         <v>608</v>
       </c>
-      <c r="S571" t="s">
+      <c r="E51" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="572" spans="15:19">
-      <c r="O572" t="s">
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
         <v>454</v>
       </c>
-      <c r="P572" t="s">
+      <c r="B52" t="s">
         <v>606</v>
       </c>
-      <c r="Q572" t="s">
+      <c r="C52" t="s">
         <v>609</v>
       </c>
-      <c r="R572" t="s">
+      <c r="D52" t="s">
         <v>610</v>
       </c>
-      <c r="S572" t="s">
+      <c r="E52" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="573" spans="15:19">
-      <c r="O573" t="s">
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
         <v>458</v>
       </c>
-      <c r="P573" t="s">
+      <c r="B53" t="s">
         <v>611</v>
       </c>
-      <c r="Q573" t="s">
+      <c r="C53" t="s">
         <v>612</v>
       </c>
-      <c r="R573" t="s">
+      <c r="D53" t="s">
         <v>613</v>
       </c>
-      <c r="S573" t="s">
+      <c r="E53" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="574" spans="15:19">
-      <c r="O574" t="s">
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
         <v>454</v>
       </c>
-      <c r="P574" t="s">
+      <c r="B54" t="s">
         <v>614</v>
       </c>
-      <c r="Q574" t="s">
+      <c r="C54" t="s">
         <v>615</v>
       </c>
-      <c r="R574" t="s">
+      <c r="D54" t="s">
         <v>616</v>
       </c>
-      <c r="S574" t="s">
+      <c r="E54" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="575" spans="15:19">
-      <c r="O575" t="s">
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
         <v>458</v>
       </c>
-      <c r="P575" t="s">
+      <c r="B55" t="s">
         <v>614</v>
       </c>
-      <c r="Q575" t="s">
+      <c r="C55" t="s">
         <v>617</v>
       </c>
-      <c r="R575" t="s">
+      <c r="D55" t="s">
         <v>618</v>
       </c>
-      <c r="S575" t="s">
+      <c r="E55" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="576" spans="15:19">
-      <c r="O576" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>619</v>
       </c>
-      <c r="P576" t="s">
+      <c r="B56" t="s">
         <v>620</v>
       </c>
-      <c r="Q576" t="s">
+      <c r="C56" t="s">
         <v>621</v>
       </c>
-      <c r="R576" t="s">
+      <c r="D56" t="s">
         <v>547</v>
       </c>
-      <c r="S576" t="s">
+      <c r="E56" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="577" spans="15:19">
-      <c r="O577" t="s">
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
         <v>454</v>
       </c>
-      <c r="P577" t="s">
+      <c r="B57" t="s">
         <v>620</v>
       </c>
-      <c r="Q577" t="s">
+      <c r="C57" t="s">
         <v>623</v>
       </c>
-      <c r="R577" t="s">
+      <c r="D57" t="s">
         <v>489</v>
       </c>
-      <c r="S577" t="s">
+      <c r="E57" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="578" spans="15:19">
-      <c r="O578" t="s">
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
         <v>458</v>
       </c>
-      <c r="P578" t="s">
+      <c r="B58" t="s">
         <v>620</v>
       </c>
-      <c r="Q578" t="s">
+      <c r="C58" t="s">
         <v>624</v>
       </c>
-      <c r="R578" t="s">
+      <c r="D58" t="s">
         <v>625</v>
       </c>
-      <c r="S578" t="s">
+      <c r="E58" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="583" spans="15:19">
-      <c r="O583" t="s">
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
         <v>440</v>
       </c>
-      <c r="P583" t="s">
+      <c r="B62" t="s">
         <v>441</v>
       </c>
-      <c r="Q583" t="s">
+      <c r="C62" t="s">
         <v>442</v>
       </c>
-      <c r="R583" t="s">
+      <c r="D62" t="s">
         <v>443</v>
       </c>
-      <c r="S583" t="s">
+      <c r="E62" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="584" spans="15:19">
-      <c r="O584" t="s">
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
         <v>445</v>
       </c>
-      <c r="P584" t="s">
+      <c r="B63" t="s">
         <v>446</v>
       </c>
-      <c r="Q584" t="s">
+      <c r="C63" t="s">
         <v>447</v>
       </c>
-      <c r="R584" t="s">
+      <c r="D63" t="s">
         <v>448</v>
       </c>
-      <c r="S584" t="s">
+      <c r="E63" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="585" spans="15:19">
-      <c r="O585" t="s">
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>450</v>
       </c>
-      <c r="P585" t="s">
+      <c r="B64" t="s">
         <v>446</v>
       </c>
-      <c r="Q585" t="s">
+      <c r="C64" t="s">
         <v>451</v>
       </c>
-      <c r="R585" t="s">
+      <c r="D64" t="s">
         <v>452</v>
       </c>
-      <c r="S585" t="s">
+      <c r="E64" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="586" spans="15:19">
-      <c r="O586" t="s">
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
         <v>454</v>
       </c>
-      <c r="P586" t="s">
+      <c r="B65" t="s">
         <v>446</v>
       </c>
-      <c r="Q586" t="s">
+      <c r="C65" t="s">
         <v>455</v>
       </c>
-      <c r="R586" t="s">
+      <c r="D65" t="s">
         <v>456</v>
       </c>
-      <c r="S586" t="s">
+      <c r="E65" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="587" spans="15:19">
-      <c r="O587" t="s">
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
         <v>458</v>
       </c>
-      <c r="P587" t="s">
+      <c r="B66" t="s">
         <v>459</v>
       </c>
-      <c r="Q587" t="s">
+      <c r="C66" t="s">
         <v>460</v>
       </c>
-      <c r="R587" t="s">
+      <c r="D66" t="s">
         <v>461</v>
       </c>
-      <c r="S587" t="s">
+      <c r="E66" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="588" spans="15:19">
-      <c r="O588" t="s">
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
         <v>440</v>
       </c>
-      <c r="P588" t="s">
+      <c r="B67" t="s">
         <v>463</v>
       </c>
-      <c r="Q588" t="s">
+      <c r="C67" t="s">
         <v>464</v>
       </c>
-      <c r="R588" t="s">
+      <c r="D67" t="s">
         <v>448</v>
       </c>
-      <c r="S588" t="s">
+      <c r="E67" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="589" spans="15:19">
-      <c r="O589" t="s">
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
         <v>458</v>
       </c>
-      <c r="P589" t="s">
+      <c r="B68" t="s">
         <v>465</v>
       </c>
-      <c r="Q589" t="s">
+      <c r="C68" t="s">
         <v>466</v>
       </c>
-      <c r="R589" t="s">
+      <c r="D68" t="s">
         <v>467</v>
       </c>
-      <c r="S589" t="s">
+      <c r="E68" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="590" spans="15:19">
-      <c r="O590" t="s">
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
         <v>454</v>
       </c>
-      <c r="P590" t="s">
+      <c r="B69" t="s">
         <v>469</v>
       </c>
-      <c r="Q590" t="s">
+      <c r="C69" t="s">
         <v>470</v>
       </c>
-      <c r="R590" t="s">
+      <c r="D69" t="s">
         <v>471</v>
       </c>
-      <c r="S590" t="s">
+      <c r="E69" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="591" spans="15:19">
-      <c r="O591" t="s">
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
         <v>473</v>
       </c>
-      <c r="P591" t="s">
+      <c r="B70" t="s">
         <v>474</v>
       </c>
-      <c r="Q591" t="s">
+      <c r="C70" t="s">
         <v>475</v>
       </c>
-      <c r="R591" t="s">
+      <c r="D70" t="s">
         <v>476</v>
       </c>
-      <c r="S591" t="s">
+      <c r="E70" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="592" spans="15:19">
-      <c r="O592" t="s">
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
         <v>478</v>
       </c>
-      <c r="P592" t="s">
+      <c r="B71" t="s">
         <v>479</v>
       </c>
-      <c r="Q592" t="s">
+      <c r="C71" t="s">
         <v>480</v>
       </c>
-      <c r="R592" t="s">
+      <c r="D71" t="s">
         <v>481</v>
       </c>
-      <c r="S592" t="s">
+      <c r="E71" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="593" spans="15:19">
-      <c r="O593" t="s">
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
         <v>483</v>
       </c>
-      <c r="P593" t="s">
+      <c r="B72" t="s">
         <v>484</v>
       </c>
-      <c r="Q593" t="s">
+      <c r="C72" t="s">
         <v>485</v>
       </c>
-      <c r="R593" t="s">
+      <c r="D72" t="s">
         <v>486</v>
       </c>
-      <c r="S593" t="s">
+      <c r="E72" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="594" spans="15:19">
-      <c r="O594" t="s">
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
         <v>445</v>
       </c>
-      <c r="P594" t="s">
+      <c r="B73" t="s">
         <v>484</v>
       </c>
-      <c r="Q594" t="s">
+      <c r="C73" t="s">
         <v>487</v>
       </c>
-      <c r="R594" t="s">
+      <c r="D73" t="s">
         <v>486</v>
       </c>
-      <c r="S594" t="s">
+      <c r="E73" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="595" spans="15:19">
-      <c r="O595" t="s">
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
         <v>454</v>
       </c>
-      <c r="P595" t="s">
+      <c r="B74" t="s">
         <v>484</v>
       </c>
-      <c r="Q595" t="s">
+      <c r="C74" t="s">
         <v>488</v>
       </c>
-      <c r="R595" t="s">
+      <c r="D74" t="s">
         <v>489</v>
       </c>
-      <c r="S595" t="s">
+      <c r="E74" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="596" spans="15:19">
-      <c r="O596" t="s">
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
         <v>490</v>
       </c>
-      <c r="P596" t="s">
+      <c r="B75" t="s">
         <v>491</v>
       </c>
-      <c r="Q596" t="s">
+      <c r="C75" t="s">
         <v>492</v>
       </c>
-      <c r="R596" t="s">
+      <c r="D75" t="s">
         <v>493</v>
       </c>
-      <c r="S596" t="s">
+      <c r="E75" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="597" spans="15:19">
-      <c r="O597" t="s">
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
         <v>454</v>
       </c>
-      <c r="P597" t="s">
+      <c r="B76" t="s">
         <v>491</v>
       </c>
-      <c r="Q597" t="s">
+      <c r="C76" t="s">
         <v>495</v>
       </c>
-      <c r="R597" t="s">
+      <c r="D76" t="s">
         <v>496</v>
       </c>
-      <c r="S597" t="s">
+      <c r="E76" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="598" spans="15:19">
-      <c r="O598" t="s">
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
         <v>498</v>
       </c>
-      <c r="P598" t="s">
+      <c r="B77" t="s">
         <v>499</v>
       </c>
-      <c r="Q598" t="s">
+      <c r="C77" t="s">
         <v>500</v>
       </c>
-      <c r="R598" t="s">
+      <c r="D77" t="s">
         <v>501</v>
       </c>
-      <c r="S598" t="s">
+      <c r="E77" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="599" spans="15:19">
-      <c r="O599" t="s">
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
         <v>503</v>
       </c>
-      <c r="P599" t="s">
+      <c r="B78" t="s">
         <v>499</v>
       </c>
-      <c r="Q599" t="s">
+      <c r="C78" t="s">
         <v>504</v>
       </c>
-      <c r="R599" t="s">
+      <c r="D78" t="s">
         <v>505</v>
       </c>
-      <c r="S599" t="s">
+      <c r="E78" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="600" spans="15:19">
-      <c r="O600" t="s">
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
         <v>454</v>
       </c>
-      <c r="P600" t="s">
+      <c r="B79" t="s">
         <v>507</v>
       </c>
-      <c r="Q600" t="s">
+      <c r="C79" t="s">
         <v>508</v>
       </c>
-      <c r="R600" t="s">
+      <c r="D79" t="s">
         <v>509</v>
       </c>
-      <c r="S600" t="s">
+      <c r="E79" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="601" spans="15:19">
-      <c r="O601" t="s">
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
         <v>458</v>
       </c>
-      <c r="P601" t="s">
+      <c r="B80" t="s">
         <v>510</v>
       </c>
-      <c r="Q601" t="s">
+      <c r="C80" t="s">
         <v>511</v>
       </c>
-      <c r="R601" t="s">
+      <c r="D80" t="s">
         <v>512</v>
       </c>
-      <c r="S601" t="s">
+      <c r="E80" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="602" spans="15:19">
-      <c r="O602" t="s">
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
         <v>514</v>
       </c>
-      <c r="P602" t="s">
+      <c r="B81" t="s">
         <v>510</v>
       </c>
-      <c r="Q602" t="s">
+      <c r="C81" t="s">
         <v>515</v>
       </c>
-      <c r="R602" t="s">
+      <c r="D81" t="s">
         <v>516</v>
       </c>
-      <c r="S602" t="s">
+      <c r="E81" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="603" spans="15:19">
-      <c r="O603" t="s">
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
         <v>518</v>
       </c>
-      <c r="P603" t="s">
+      <c r="B82" t="s">
         <v>510</v>
       </c>
-      <c r="Q603" t="s">
+      <c r="C82" t="s">
         <v>519</v>
       </c>
-      <c r="R603" t="s">
+      <c r="D82" t="s">
         <v>520</v>
       </c>
-      <c r="S603" t="s">
+      <c r="E82" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="604" spans="15:19">
-      <c r="O604" t="s">
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
         <v>454</v>
       </c>
-      <c r="P604" t="s">
+      <c r="B83" t="s">
         <v>510</v>
       </c>
-      <c r="Q604" t="s">
+      <c r="C83" t="s">
         <v>522</v>
       </c>
-      <c r="R604" t="s">
+      <c r="D83" t="s">
         <v>523</v>
       </c>
-      <c r="S604" t="s">
+      <c r="E83" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="605" spans="15:19">
-      <c r="O605" t="s">
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
         <v>458</v>
       </c>
-      <c r="P605" t="s">
+      <c r="B84" t="s">
         <v>524</v>
       </c>
-      <c r="Q605" t="s">
+      <c r="C84" t="s">
         <v>525</v>
       </c>
-      <c r="R605" t="s">
+      <c r="D84" t="s">
         <v>526</v>
       </c>
-      <c r="S605" t="s">
+      <c r="E84" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="606" spans="15:19">
-      <c r="O606" t="s">
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
         <v>454</v>
       </c>
-      <c r="P606" t="s">
+      <c r="B85" t="s">
         <v>527</v>
       </c>
-      <c r="Q606" t="s">
+      <c r="C85" t="s">
         <v>528</v>
       </c>
-      <c r="R606" t="s">
+      <c r="D85" t="s">
         <v>529</v>
       </c>
-      <c r="S606" t="s">
+      <c r="E85" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="607" spans="15:19">
-      <c r="O607" t="s">
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
         <v>458</v>
       </c>
-      <c r="P607" t="s">
+      <c r="B86" t="s">
         <v>527</v>
       </c>
-      <c r="Q607" t="s">
+      <c r="C86" t="s">
         <v>530</v>
       </c>
-      <c r="R607" t="s">
+      <c r="D86" t="s">
         <v>531</v>
       </c>
-      <c r="S607" t="s">
+      <c r="E86" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="608" spans="15:19">
-      <c r="O608" t="s">
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
         <v>533</v>
       </c>
-      <c r="P608" t="s">
+      <c r="B87" t="s">
         <v>527</v>
       </c>
-      <c r="Q608" t="s">
+      <c r="C87" t="s">
         <v>534</v>
       </c>
-      <c r="R608" t="s">
+      <c r="D87" t="s">
         <v>535</v>
       </c>
-      <c r="S608" t="s">
+      <c r="E87" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="609" spans="15:19">
-      <c r="O609" t="s">
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
         <v>537</v>
       </c>
-      <c r="P609" t="s">
+      <c r="B88" t="s">
         <v>527</v>
       </c>
-      <c r="Q609" t="s">
+      <c r="C88" t="s">
         <v>538</v>
       </c>
-      <c r="R609" t="s">
+      <c r="D88" t="s">
         <v>539</v>
       </c>
-      <c r="S609" t="s">
+      <c r="E88" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="610" spans="15:19">
-      <c r="O610" t="s">
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
         <v>540</v>
       </c>
-      <c r="P610" t="s">
+      <c r="B89" t="s">
         <v>541</v>
       </c>
-      <c r="Q610" t="s">
+      <c r="C89" t="s">
         <v>542</v>
       </c>
-      <c r="R610" t="s">
+      <c r="D89" t="s">
         <v>452</v>
       </c>
-      <c r="S610" t="s">
+      <c r="E89" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="611" spans="15:19">
-      <c r="O611" t="s">
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
         <v>544</v>
       </c>
-      <c r="P611" t="s">
+      <c r="B90" t="s">
         <v>545</v>
       </c>
-      <c r="Q611" t="s">
+      <c r="C90" t="s">
         <v>546</v>
       </c>
-      <c r="R611" t="s">
+      <c r="D90" t="s">
         <v>547</v>
       </c>
-      <c r="S611" t="s">
+      <c r="E90" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="612" spans="15:19">
-      <c r="O612" t="s">
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>454</v>
       </c>
-      <c r="P612" t="s">
+      <c r="B91" t="s">
         <v>545</v>
       </c>
-      <c r="Q612" t="s">
+      <c r="C91" t="s">
         <v>548</v>
       </c>
-      <c r="R612" t="s">
+      <c r="D91" t="s">
         <v>549</v>
       </c>
-      <c r="S612" t="s">
+      <c r="E91" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="613" spans="15:19">
-      <c r="O613" t="s">
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
         <v>458</v>
       </c>
-      <c r="P613" t="s">
+      <c r="B92" t="s">
         <v>550</v>
       </c>
-      <c r="Q613" t="s">
+      <c r="C92" t="s">
         <v>551</v>
       </c>
-      <c r="R613" t="s">
+      <c r="D92" t="s">
         <v>552</v>
       </c>
-      <c r="S613" t="s">
+      <c r="E92" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="614" spans="15:19">
-      <c r="O614" t="s">
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
         <v>553</v>
       </c>
-      <c r="P614" t="s">
+      <c r="B93" t="s">
         <v>550</v>
       </c>
-      <c r="Q614" t="s">
+      <c r="C93" t="s">
         <v>554</v>
       </c>
-      <c r="R614" t="s">
+      <c r="D93" t="s">
         <v>555</v>
       </c>
-      <c r="S614" t="s">
+      <c r="E93" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="615" spans="15:19">
-      <c r="O615" t="s">
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
         <v>557</v>
       </c>
-      <c r="P615" t="s">
+      <c r="B94" t="s">
         <v>550</v>
       </c>
-      <c r="Q615" t="s">
+      <c r="C94" t="s">
         <v>558</v>
       </c>
-      <c r="R615" t="s">
+      <c r="D94" t="s">
         <v>559</v>
       </c>
-      <c r="S615" t="s">
+      <c r="E94" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="616" spans="15:19">
-      <c r="O616" t="s">
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
         <v>561</v>
       </c>
-      <c r="P616" t="s">
+      <c r="B95" t="s">
         <v>550</v>
       </c>
-      <c r="Q616" t="s">
+      <c r="C95" t="s">
         <v>562</v>
       </c>
-      <c r="R616" t="s">
+      <c r="D95" t="s">
         <v>563</v>
       </c>
-      <c r="S616" t="s">
+      <c r="E95" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="617" spans="15:19">
-      <c r="O617" t="s">
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
         <v>565</v>
       </c>
-      <c r="P617" t="s">
+      <c r="B96" t="s">
         <v>550</v>
       </c>
-      <c r="Q617" t="s">
+      <c r="C96" t="s">
         <v>566</v>
       </c>
-      <c r="R617" t="s">
+      <c r="D96" t="s">
         <v>567</v>
       </c>
-      <c r="S617" t="s">
+      <c r="E96" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="618" spans="15:19">
-      <c r="O618" t="s">
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
         <v>454</v>
       </c>
-      <c r="P618" t="s">
+      <c r="B97" t="s">
         <v>550</v>
       </c>
-      <c r="Q618" t="s">
+      <c r="C97" t="s">
         <v>569</v>
       </c>
-      <c r="R618" t="s">
+      <c r="D97" t="s">
         <v>570</v>
       </c>
-      <c r="S618" t="s">
+      <c r="E97" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="619" spans="15:19">
-      <c r="O619" t="s">
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
         <v>572</v>
       </c>
-      <c r="P619" t="s">
+      <c r="B98" t="s">
         <v>573</v>
       </c>
-      <c r="Q619" t="s">
+      <c r="C98" t="s">
         <v>447</v>
       </c>
-      <c r="R619" t="s">
+      <c r="D98" t="s">
         <v>574</v>
       </c>
-      <c r="S619" t="s">
+      <c r="E98" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="620" spans="15:19">
-      <c r="O620" t="s">
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
         <v>454</v>
       </c>
-      <c r="P620" t="s">
+      <c r="B99" t="s">
         <v>576</v>
       </c>
-      <c r="Q620" t="s">
+      <c r="C99" t="s">
         <v>577</v>
       </c>
-      <c r="R620" t="s">
+      <c r="D99" t="s">
         <v>578</v>
       </c>
-      <c r="S620" t="s">
+      <c r="E99" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="621" spans="15:19">
-      <c r="O621" t="s">
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
         <v>458</v>
       </c>
-      <c r="P621" t="s">
+      <c r="B100" t="s">
         <v>579</v>
       </c>
-      <c r="Q621" t="s">
+      <c r="C100" t="s">
         <v>580</v>
       </c>
-      <c r="R621" t="s">
+      <c r="D100" t="s">
         <v>581</v>
       </c>
-      <c r="S621" t="s">
+      <c r="E100" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="622" spans="15:19">
-      <c r="O622" t="s">
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
         <v>454</v>
       </c>
-      <c r="P622" t="s">
+      <c r="B101" t="s">
         <v>579</v>
       </c>
-      <c r="Q622" t="s">
+      <c r="C101" t="s">
         <v>582</v>
       </c>
-      <c r="R622" t="s">
+      <c r="D101" t="s">
         <v>583</v>
       </c>
-      <c r="S622" t="s">
+      <c r="E101" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="623" spans="15:19">
-      <c r="O623" t="s">
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
         <v>440</v>
       </c>
-      <c r="P623" t="s">
+      <c r="B102" t="s">
         <v>585</v>
       </c>
-      <c r="Q623" t="s">
+      <c r="C102" t="s">
         <v>586</v>
       </c>
-      <c r="R623" t="s">
+      <c r="D102" t="s">
         <v>587</v>
       </c>
-      <c r="S623" t="s">
+      <c r="E102" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="624" spans="15:19">
-      <c r="O624" t="s">
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
         <v>454</v>
       </c>
-      <c r="P624" t="s">
+      <c r="B103" t="s">
         <v>588</v>
       </c>
-      <c r="Q624" t="s">
+      <c r="C103" t="s">
         <v>589</v>
       </c>
-      <c r="R624" t="s">
+      <c r="D103" t="s">
         <v>590</v>
       </c>
-      <c r="S624" t="s">
+      <c r="E103" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="625" spans="15:19">
-      <c r="O625" t="s">
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
         <v>458</v>
       </c>
-      <c r="P625" t="s">
+      <c r="B104" t="s">
         <v>592</v>
       </c>
-      <c r="Q625" t="s">
+      <c r="C104" t="s">
         <v>593</v>
       </c>
-      <c r="R625" t="s">
+      <c r="D104" t="s">
         <v>594</v>
       </c>
-      <c r="S625" t="s">
+      <c r="E104" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="626" spans="15:19">
-      <c r="O626" t="s">
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
         <v>595</v>
       </c>
-      <c r="P626" t="s">
+      <c r="B105" t="s">
         <v>596</v>
       </c>
-      <c r="Q626" t="s">
+      <c r="C105" t="s">
         <v>597</v>
       </c>
-      <c r="R626" t="s">
+      <c r="D105" t="s">
         <v>598</v>
       </c>
-      <c r="S626" t="s">
+      <c r="E105" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="627" spans="15:19">
-      <c r="O627" t="s">
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
         <v>458</v>
       </c>
-      <c r="P627" t="s">
+      <c r="B106" t="s">
         <v>596</v>
       </c>
-      <c r="Q627" t="s">
+      <c r="C106" t="s">
         <v>600</v>
       </c>
-      <c r="R627" t="s">
+      <c r="D106" t="s">
         <v>601</v>
       </c>
-      <c r="S627" t="s">
+      <c r="E106" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="628" spans="15:19">
-      <c r="O628" t="s">
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
         <v>602</v>
       </c>
-      <c r="P628" t="s">
+      <c r="B107" t="s">
         <v>596</v>
       </c>
-      <c r="Q628" t="s">
+      <c r="C107" t="s">
         <v>603</v>
       </c>
-      <c r="R628" t="s">
+      <c r="D107" t="s">
         <v>604</v>
       </c>
-      <c r="S628" t="s">
+      <c r="E107" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="629" spans="15:19">
-      <c r="O629" t="s">
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
         <v>605</v>
       </c>
-      <c r="P629" t="s">
+      <c r="B108" t="s">
         <v>606</v>
       </c>
-      <c r="Q629" t="s">
+      <c r="C108" t="s">
         <v>607</v>
       </c>
-      <c r="R629" t="s">
+      <c r="D108" t="s">
         <v>608</v>
       </c>
-      <c r="S629" t="s">
+      <c r="E108" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="630" spans="15:19">
-      <c r="O630" t="s">
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
         <v>454</v>
       </c>
-      <c r="P630" t="s">
+      <c r="B109" t="s">
         <v>606</v>
       </c>
-      <c r="Q630" t="s">
+      <c r="C109" t="s">
         <v>609</v>
       </c>
-      <c r="R630" t="s">
+      <c r="D109" t="s">
         <v>610</v>
       </c>
-      <c r="S630" t="s">
+      <c r="E109" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="631" spans="15:19">
-      <c r="O631" t="s">
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
         <v>458</v>
       </c>
-      <c r="P631" t="s">
+      <c r="B110" t="s">
         <v>611</v>
       </c>
-      <c r="Q631" t="s">
+      <c r="C110" t="s">
         <v>612</v>
       </c>
-      <c r="R631" t="s">
+      <c r="D110" t="s">
         <v>613</v>
       </c>
-      <c r="S631" t="s">
+      <c r="E110" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="632" spans="15:19">
-      <c r="O632" t="s">
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
         <v>454</v>
       </c>
-      <c r="P632" t="s">
+      <c r="B111" t="s">
         <v>614</v>
       </c>
-      <c r="Q632" t="s">
+      <c r="C111" t="s">
         <v>615</v>
       </c>
-      <c r="R632" t="s">
+      <c r="D111" t="s">
         <v>616</v>
       </c>
-      <c r="S632" t="s">
+      <c r="E111" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="633" spans="15:19">
-      <c r="O633" t="s">
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
         <v>458</v>
       </c>
-      <c r="P633" t="s">
+      <c r="B112" t="s">
         <v>614</v>
       </c>
-      <c r="Q633" t="s">
+      <c r="C112" t="s">
         <v>617</v>
       </c>
-      <c r="R633" t="s">
+      <c r="D112" t="s">
         <v>618</v>
       </c>
-      <c r="S633" t="s">
+      <c r="E112" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="634" spans="15:19">
-      <c r="O634" t="s">
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
         <v>619</v>
       </c>
-      <c r="P634" t="s">
+      <c r="B113" t="s">
         <v>620</v>
       </c>
-      <c r="Q634" t="s">
+      <c r="C113" t="s">
         <v>621</v>
       </c>
-      <c r="R634" t="s">
+      <c r="D113" t="s">
         <v>547</v>
       </c>
-      <c r="S634" t="s">
+      <c r="E113" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="635" spans="15:19">
-      <c r="O635" t="s">
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
         <v>454</v>
       </c>
-      <c r="P635" t="s">
+      <c r="B114" t="s">
         <v>620</v>
       </c>
-      <c r="Q635" t="s">
+      <c r="C114" t="s">
         <v>623</v>
       </c>
-      <c r="R635" t="s">
+      <c r="D114" t="s">
         <v>489</v>
       </c>
-      <c r="S635" t="s">
+      <c r="E114" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="636" spans="15:19">
-      <c r="O636" t="s">
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
         <v>458</v>
       </c>
-      <c r="P636" t="s">
+      <c r="B115" t="s">
         <v>620</v>
       </c>
-      <c r="Q636" t="s">
+      <c r="C115" t="s">
         <v>624</v>
       </c>
-      <c r="R636" t="s">
+      <c r="D115" t="s">
         <v>625</v>
       </c>
-      <c r="S636" t="s">
+      <c r="E115" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>440</v>
+      </c>
+      <c r="B119" t="s">
+        <v>441</v>
+      </c>
+      <c r="C119" t="s">
+        <v>442</v>
+      </c>
+      <c r="D119" t="s">
+        <v>443</v>
+      </c>
+      <c r="E119" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>445</v>
+      </c>
+      <c r="B120" t="s">
+        <v>446</v>
+      </c>
+      <c r="C120" t="s">
+        <v>447</v>
+      </c>
+      <c r="D120" t="s">
+        <v>448</v>
+      </c>
+      <c r="E120" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>450</v>
+      </c>
+      <c r="B121" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" t="s">
+        <v>451</v>
+      </c>
+      <c r="D121" t="s">
+        <v>452</v>
+      </c>
+      <c r="E121" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>454</v>
+      </c>
+      <c r="B122" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" t="s">
+        <v>455</v>
+      </c>
+      <c r="D122" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>458</v>
+      </c>
+      <c r="B123" t="s">
+        <v>459</v>
+      </c>
+      <c r="C123" t="s">
+        <v>460</v>
+      </c>
+      <c r="D123" t="s">
+        <v>461</v>
+      </c>
+      <c r="E123" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>440</v>
+      </c>
+      <c r="B124" t="s">
+        <v>463</v>
+      </c>
+      <c r="C124" t="s">
+        <v>464</v>
+      </c>
+      <c r="D124" t="s">
+        <v>448</v>
+      </c>
+      <c r="E124" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>458</v>
+      </c>
+      <c r="B125" t="s">
+        <v>465</v>
+      </c>
+      <c r="C125" t="s">
+        <v>466</v>
+      </c>
+      <c r="D125" t="s">
+        <v>467</v>
+      </c>
+      <c r="E125" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>454</v>
+      </c>
+      <c r="B126" t="s">
+        <v>469</v>
+      </c>
+      <c r="C126" t="s">
+        <v>470</v>
+      </c>
+      <c r="D126" t="s">
+        <v>471</v>
+      </c>
+      <c r="E126" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>473</v>
+      </c>
+      <c r="B127" t="s">
+        <v>474</v>
+      </c>
+      <c r="C127" t="s">
+        <v>475</v>
+      </c>
+      <c r="D127" t="s">
+        <v>476</v>
+      </c>
+      <c r="E127" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>478</v>
+      </c>
+      <c r="B128" t="s">
+        <v>479</v>
+      </c>
+      <c r="C128" t="s">
+        <v>480</v>
+      </c>
+      <c r="D128" t="s">
+        <v>481</v>
+      </c>
+      <c r="E128" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>483</v>
+      </c>
+      <c r="B129" t="s">
+        <v>484</v>
+      </c>
+      <c r="C129" t="s">
+        <v>485</v>
+      </c>
+      <c r="D129" t="s">
+        <v>486</v>
+      </c>
+      <c r="E129" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>445</v>
+      </c>
+      <c r="B130" t="s">
+        <v>484</v>
+      </c>
+      <c r="C130" t="s">
+        <v>487</v>
+      </c>
+      <c r="D130" t="s">
+        <v>486</v>
+      </c>
+      <c r="E130" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>454</v>
+      </c>
+      <c r="B131" t="s">
+        <v>484</v>
+      </c>
+      <c r="C131" t="s">
+        <v>488</v>
+      </c>
+      <c r="D131" t="s">
+        <v>489</v>
+      </c>
+      <c r="E131" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>490</v>
+      </c>
+      <c r="B132" t="s">
+        <v>491</v>
+      </c>
+      <c r="C132" t="s">
+        <v>492</v>
+      </c>
+      <c r="D132" t="s">
+        <v>493</v>
+      </c>
+      <c r="E132" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>454</v>
+      </c>
+      <c r="B133" t="s">
+        <v>491</v>
+      </c>
+      <c r="C133" t="s">
+        <v>495</v>
+      </c>
+      <c r="D133" t="s">
+        <v>496</v>
+      </c>
+      <c r="E133" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>498</v>
+      </c>
+      <c r="B134" t="s">
+        <v>499</v>
+      </c>
+      <c r="C134" t="s">
+        <v>500</v>
+      </c>
+      <c r="D134" t="s">
+        <v>501</v>
+      </c>
+      <c r="E134" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>503</v>
+      </c>
+      <c r="B135" t="s">
+        <v>499</v>
+      </c>
+      <c r="C135" t="s">
+        <v>504</v>
+      </c>
+      <c r="D135" t="s">
+        <v>505</v>
+      </c>
+      <c r="E135" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>454</v>
+      </c>
+      <c r="B136" t="s">
+        <v>507</v>
+      </c>
+      <c r="C136" t="s">
+        <v>508</v>
+      </c>
+      <c r="D136" t="s">
+        <v>509</v>
+      </c>
+      <c r="E136" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>458</v>
+      </c>
+      <c r="B137" t="s">
+        <v>510</v>
+      </c>
+      <c r="C137" t="s">
+        <v>511</v>
+      </c>
+      <c r="D137" t="s">
+        <v>512</v>
+      </c>
+      <c r="E137" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>514</v>
+      </c>
+      <c r="B138" t="s">
+        <v>510</v>
+      </c>
+      <c r="C138" t="s">
+        <v>515</v>
+      </c>
+      <c r="D138" t="s">
+        <v>516</v>
+      </c>
+      <c r="E138" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>518</v>
+      </c>
+      <c r="B139" t="s">
+        <v>510</v>
+      </c>
+      <c r="C139" t="s">
+        <v>519</v>
+      </c>
+      <c r="D139" t="s">
+        <v>520</v>
+      </c>
+      <c r="E139" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>454</v>
+      </c>
+      <c r="B140" t="s">
+        <v>510</v>
+      </c>
+      <c r="C140" t="s">
+        <v>522</v>
+      </c>
+      <c r="D140" t="s">
+        <v>523</v>
+      </c>
+      <c r="E140" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>458</v>
+      </c>
+      <c r="B141" t="s">
+        <v>524</v>
+      </c>
+      <c r="C141" t="s">
+        <v>525</v>
+      </c>
+      <c r="D141" t="s">
+        <v>526</v>
+      </c>
+      <c r="E141" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>454</v>
+      </c>
+      <c r="B142" t="s">
+        <v>527</v>
+      </c>
+      <c r="C142" t="s">
+        <v>528</v>
+      </c>
+      <c r="D142" t="s">
+        <v>529</v>
+      </c>
+      <c r="E142" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>458</v>
+      </c>
+      <c r="B143" t="s">
+        <v>527</v>
+      </c>
+      <c r="C143" t="s">
+        <v>530</v>
+      </c>
+      <c r="D143" t="s">
+        <v>531</v>
+      </c>
+      <c r="E143" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>533</v>
+      </c>
+      <c r="B144" t="s">
+        <v>527</v>
+      </c>
+      <c r="C144" t="s">
+        <v>534</v>
+      </c>
+      <c r="D144" t="s">
+        <v>535</v>
+      </c>
+      <c r="E144" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>537</v>
+      </c>
+      <c r="B145" t="s">
+        <v>527</v>
+      </c>
+      <c r="C145" t="s">
+        <v>538</v>
+      </c>
+      <c r="D145" t="s">
+        <v>539</v>
+      </c>
+      <c r="E145" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>540</v>
+      </c>
+      <c r="B146" t="s">
+        <v>541</v>
+      </c>
+      <c r="C146" t="s">
+        <v>542</v>
+      </c>
+      <c r="D146" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>544</v>
+      </c>
+      <c r="B147" t="s">
+        <v>545</v>
+      </c>
+      <c r="C147" t="s">
+        <v>546</v>
+      </c>
+      <c r="D147" t="s">
+        <v>547</v>
+      </c>
+      <c r="E147" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>454</v>
+      </c>
+      <c r="B148" t="s">
+        <v>545</v>
+      </c>
+      <c r="C148" t="s">
+        <v>548</v>
+      </c>
+      <c r="D148" t="s">
+        <v>549</v>
+      </c>
+      <c r="E148" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>458</v>
+      </c>
+      <c r="B149" t="s">
+        <v>550</v>
+      </c>
+      <c r="C149" t="s">
+        <v>551</v>
+      </c>
+      <c r="D149" t="s">
+        <v>552</v>
+      </c>
+      <c r="E149" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>553</v>
+      </c>
+      <c r="B150" t="s">
+        <v>550</v>
+      </c>
+      <c r="C150" t="s">
+        <v>554</v>
+      </c>
+      <c r="D150" t="s">
+        <v>555</v>
+      </c>
+      <c r="E150" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>557</v>
+      </c>
+      <c r="B151" t="s">
+        <v>550</v>
+      </c>
+      <c r="C151" t="s">
+        <v>558</v>
+      </c>
+      <c r="D151" t="s">
+        <v>559</v>
+      </c>
+      <c r="E151" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>561</v>
+      </c>
+      <c r="B152" t="s">
+        <v>550</v>
+      </c>
+      <c r="C152" t="s">
+        <v>562</v>
+      </c>
+      <c r="D152" t="s">
+        <v>563</v>
+      </c>
+      <c r="E152" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>565</v>
+      </c>
+      <c r="B153" t="s">
+        <v>550</v>
+      </c>
+      <c r="C153" t="s">
+        <v>566</v>
+      </c>
+      <c r="D153" t="s">
+        <v>567</v>
+      </c>
+      <c r="E153" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>454</v>
+      </c>
+      <c r="B154" t="s">
+        <v>550</v>
+      </c>
+      <c r="C154" t="s">
+        <v>569</v>
+      </c>
+      <c r="D154" t="s">
+        <v>570</v>
+      </c>
+      <c r="E154" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>572</v>
+      </c>
+      <c r="B155" t="s">
+        <v>573</v>
+      </c>
+      <c r="C155" t="s">
+        <v>447</v>
+      </c>
+      <c r="D155" t="s">
+        <v>574</v>
+      </c>
+      <c r="E155" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>454</v>
+      </c>
+      <c r="B156" t="s">
+        <v>576</v>
+      </c>
+      <c r="C156" t="s">
+        <v>577</v>
+      </c>
+      <c r="D156" t="s">
+        <v>578</v>
+      </c>
+      <c r="E156" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>458</v>
+      </c>
+      <c r="B157" t="s">
+        <v>579</v>
+      </c>
+      <c r="C157" t="s">
+        <v>580</v>
+      </c>
+      <c r="D157" t="s">
+        <v>581</v>
+      </c>
+      <c r="E157" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>454</v>
+      </c>
+      <c r="B158" t="s">
+        <v>579</v>
+      </c>
+      <c r="C158" t="s">
+        <v>582</v>
+      </c>
+      <c r="D158" t="s">
+        <v>583</v>
+      </c>
+      <c r="E158" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>440</v>
+      </c>
+      <c r="B159" t="s">
+        <v>585</v>
+      </c>
+      <c r="C159" t="s">
+        <v>586</v>
+      </c>
+      <c r="D159" t="s">
+        <v>587</v>
+      </c>
+      <c r="E159" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>454</v>
+      </c>
+      <c r="B160" t="s">
+        <v>588</v>
+      </c>
+      <c r="C160" t="s">
+        <v>589</v>
+      </c>
+      <c r="D160" t="s">
+        <v>590</v>
+      </c>
+      <c r="E160" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>458</v>
+      </c>
+      <c r="B161" t="s">
+        <v>592</v>
+      </c>
+      <c r="C161" t="s">
+        <v>593</v>
+      </c>
+      <c r="D161" t="s">
+        <v>594</v>
+      </c>
+      <c r="E161" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>595</v>
+      </c>
+      <c r="B162" t="s">
+        <v>596</v>
+      </c>
+      <c r="C162" t="s">
+        <v>597</v>
+      </c>
+      <c r="D162" t="s">
+        <v>598</v>
+      </c>
+      <c r="E162" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>458</v>
+      </c>
+      <c r="B163" t="s">
+        <v>596</v>
+      </c>
+      <c r="C163" t="s">
+        <v>600</v>
+      </c>
+      <c r="D163" t="s">
+        <v>601</v>
+      </c>
+      <c r="E163" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>602</v>
+      </c>
+      <c r="B164" t="s">
+        <v>596</v>
+      </c>
+      <c r="C164" t="s">
+        <v>603</v>
+      </c>
+      <c r="D164" t="s">
+        <v>604</v>
+      </c>
+      <c r="E164" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>605</v>
+      </c>
+      <c r="B165" t="s">
+        <v>606</v>
+      </c>
+      <c r="C165" t="s">
+        <v>607</v>
+      </c>
+      <c r="D165" t="s">
+        <v>608</v>
+      </c>
+      <c r="E165" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>454</v>
+      </c>
+      <c r="B166" t="s">
+        <v>606</v>
+      </c>
+      <c r="C166" t="s">
+        <v>609</v>
+      </c>
+      <c r="D166" t="s">
+        <v>610</v>
+      </c>
+      <c r="E166" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>458</v>
+      </c>
+      <c r="B167" t="s">
+        <v>611</v>
+      </c>
+      <c r="C167" t="s">
+        <v>612</v>
+      </c>
+      <c r="D167" t="s">
+        <v>613</v>
+      </c>
+      <c r="E167" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>454</v>
+      </c>
+      <c r="B168" t="s">
+        <v>614</v>
+      </c>
+      <c r="C168" t="s">
+        <v>615</v>
+      </c>
+      <c r="D168" t="s">
+        <v>616</v>
+      </c>
+      <c r="E168" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>458</v>
+      </c>
+      <c r="B169" t="s">
+        <v>614</v>
+      </c>
+      <c r="C169" t="s">
+        <v>617</v>
+      </c>
+      <c r="D169" t="s">
+        <v>618</v>
+      </c>
+      <c r="E169" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>619</v>
+      </c>
+      <c r="B170" t="s">
+        <v>620</v>
+      </c>
+      <c r="C170" t="s">
+        <v>621</v>
+      </c>
+      <c r="D170" t="s">
+        <v>547</v>
+      </c>
+      <c r="E170" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>454</v>
+      </c>
+      <c r="B171" t="s">
+        <v>620</v>
+      </c>
+      <c r="C171" t="s">
+        <v>623</v>
+      </c>
+      <c r="D171" t="s">
+        <v>489</v>
+      </c>
+      <c r="E171" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>458</v>
+      </c>
+      <c r="B172" t="s">
+        <v>620</v>
+      </c>
+      <c r="C172" t="s">
+        <v>624</v>
+      </c>
+      <c r="D172" t="s">
+        <v>625</v>
+      </c>
+      <c r="E172" t="s">
         <v>477</v>
       </c>
     </row>
